--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1056,6 +1056,44 @@
         <a:xfrm>
           <a:off x="12306300" y="400051"/>
           <a:ext cx="4562475" cy="3217052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="3781425"/>
+          <a:ext cx="5991225" cy="3904761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="299">
   <si>
     <t>// DANH SÁCH MÀN HÌNH LỖI NAVIGATION</t>
   </si>
@@ -913,6 +913,15 @@
   </si>
   <si>
     <t>};</t>
+  </si>
+  <si>
+    <t>000. database</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>P-chat123456789</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E18"/>
+  <dimension ref="A4:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,6 +1444,17 @@
       </c>
       <c r="E18" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
